--- a/Suppl/Thrive Fitness Plan - Lifting - heh.xlsx
+++ b/Suppl/Thrive Fitness Plan - Lifting - heh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t>Plan</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Smith Squats</t>
   </si>
   <si>
-    <t>12/12/12/12</t>
-  </si>
-  <si>
     <t>Dumbbell Flys</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Lying Hamstring Curl</t>
   </si>
   <si>
-    <t>10/10/10/12</t>
-  </si>
-  <si>
     <t>Wide Grip Lat Pulldowns, Slow</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
     <t>Seated Leg Press</t>
   </si>
   <si>
-    <t>10/12/12/12</t>
-  </si>
-  <si>
     <t>Seated Wide Grip Row</t>
   </si>
   <si>
@@ -165,15 +156,9 @@
     <t>Dumbbell Lunges</t>
   </si>
   <si>
-    <t>16/16/16/10</t>
-  </si>
-  <si>
     <t>T-ROW Machine</t>
   </si>
   <si>
-    <t>12/12/12/15</t>
-  </si>
-  <si>
     <t>Day 2</t>
   </si>
   <si>
@@ -189,9 +174,6 @@
     <t>Dumbbell Flat Bench Press</t>
   </si>
   <si>
-    <t>8/8/10/10</t>
-  </si>
-  <si>
     <t>Barbbell Shoulder Press</t>
   </si>
   <si>
@@ -210,15 +192,9 @@
     <t>Hanging Leg Raises</t>
   </si>
   <si>
-    <t>10/10/10/10</t>
-  </si>
-  <si>
     <t>Dips</t>
   </si>
   <si>
-    <t>15/15/20/20</t>
-  </si>
-  <si>
     <t>Dumbbell Seated Lateral Raise</t>
   </si>
   <si>
@@ -265,6 +241,15 @@
   </si>
   <si>
     <t>12/10/8</t>
+  </si>
+  <si>
+    <t>12/12/15</t>
+  </si>
+  <si>
+    <t>15/20/20</t>
+  </si>
+  <si>
+    <t>16/16/10</t>
   </si>
 </sst>
 </file>
@@ -427,9 +412,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -478,6 +460,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,7 +746,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,10 +776,10 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="32">
         <v>42793</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -812,7 +797,7 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1"/>
@@ -834,8 +819,8 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -843,488 +828,488 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="7" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="11"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17" t="s">
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17" t="s">
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="13" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14" t="s">
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="17" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="14" t="s">
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="17" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="14" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="13" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14" t="s">
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18" t="s">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="17" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
     </row>
     <row r="17" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="21"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="23"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7" t="s">
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26" t="s">
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29" t="s">
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30" t="s">
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="26" t="s">
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27" t="s">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29" t="s">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30" t="s">
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="28" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="26" t="s">
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Suppl/Thrive Fitness Plan - Lifting - heh.xlsx
+++ b/Suppl/Thrive Fitness Plan - Lifting - heh.xlsx
@@ -171,9 +171,6 @@
     <t>Shoulders &amp; Traps</t>
   </si>
   <si>
-    <t>Dumbbell Flat Bench Press</t>
-  </si>
-  <si>
     <t>Barbbell Shoulder Press</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>Kettlebell Squat-to-Upright Row</t>
   </si>
   <si>
-    <t>Dumbell Incline Bench Press</t>
-  </si>
-  <si>
     <t>Hanging Leg Raises</t>
   </si>
   <si>
@@ -250,6 +244,12 @@
   </si>
   <si>
     <t>16/16/10</t>
+  </si>
+  <si>
+    <t>Dumbbell Incline Bench Press</t>
+  </si>
+  <si>
+    <t>Dumbell Flat Bench Press</t>
   </si>
 </sst>
 </file>
@@ -746,7 +746,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,7 +1055,7 @@
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1066,7 +1066,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="19"/>
@@ -1112,17 +1112,17 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="25" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="27"/>
       <c r="H19" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
@@ -1133,17 +1133,17 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="27"/>
       <c r="H20" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
@@ -1154,7 +1154,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
       <c r="B21" s="25" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -1164,7 +1164,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="31"/>
       <c r="H21" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
@@ -1175,17 +1175,17 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="27"/>
       <c r="H22" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
@@ -1196,7 +1196,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
@@ -1206,18 +1206,18 @@
       <c r="F23" s="2"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
       <c r="K23" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -1227,39 +1227,39 @@
       <c r="F24" s="2"/>
       <c r="G24" s="27"/>
       <c r="H24" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
       <c r="K24" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
       <c r="B25" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="31"/>
       <c r="H25" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
       <c r="K25" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -1269,7 +1269,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="31"/>
       <c r="H26" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I26" s="28"/>
       <c r="J26" s="28"/>
@@ -1280,7 +1280,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -1290,12 +1290,12 @@
       <c r="F27" s="2"/>
       <c r="G27" s="31"/>
       <c r="H27" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
       <c r="K27" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">

--- a/Suppl/Thrive Fitness Plan - Lifting - heh.xlsx
+++ b/Suppl/Thrive Fitness Plan - Lifting - heh.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t>Plan</t>
   </si>
@@ -81,9 +81,6 @@
     <t>8/10/10</t>
   </si>
   <si>
-    <t>Seated Calf Press</t>
-  </si>
-  <si>
     <t>12/12/12</t>
   </si>
   <si>
@@ -123,36 +120,18 @@
     <t>Barbbell Deadlift</t>
   </si>
   <si>
-    <t>Preacher Curl 21's</t>
-  </si>
-  <si>
-    <t>21/21/21</t>
-  </si>
-  <si>
     <t>Bulgarian Split Squat</t>
   </si>
   <si>
     <t>10/10/12</t>
   </si>
   <si>
-    <t>Isometric Rear Delt Flt</t>
-  </si>
-  <si>
-    <t>Seated Leg Press</t>
-  </si>
-  <si>
     <t>Seated Wide Grip Row</t>
   </si>
   <si>
     <t>Good Mornings</t>
   </si>
   <si>
-    <t>Seated Lower Back Extension</t>
-  </si>
-  <si>
-    <t>15/15/15</t>
-  </si>
-  <si>
     <t>Dumbbell Lunges</t>
   </si>
   <si>
@@ -192,9 +171,6 @@
     <t>Dumbbell Seated Lateral Raise</t>
   </si>
   <si>
-    <t>Raised Leg Lifts</t>
-  </si>
-  <si>
     <t>Dumbell Farmer's Carries</t>
   </si>
   <si>
@@ -250,13 +226,22 @@
   </si>
   <si>
     <t>Dumbell Flat Bench Press</t>
+  </si>
+  <si>
+    <t>Single Leg Seat-Mach Calf Press</t>
+  </si>
+  <si>
+    <t>Leg Press</t>
+  </si>
+  <si>
+    <t>Hamstring Lower Back Ext</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +268,12 @@
     <font>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -405,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -449,7 +440,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -463,6 +453,13 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,10 +773,10 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="31">
         <v>42793</v>
       </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -866,107 +863,107 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="19"/>
       <c r="H9" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="19"/>
       <c r="H10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -977,22 +974,22 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="13" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="16" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1003,12 +1000,12 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="19"/>
       <c r="H13" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
@@ -1016,57 +1013,53 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13" t="s">
-        <v>21</v>
-      </c>
+    <row r="14" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="14"/>
       <c r="G14" s="19"/>
       <c r="H14" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13" t="s">
-        <v>43</v>
-      </c>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="14"/>
       <c r="G15" s="19"/>
       <c r="H15" s="16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13" t="s">
-        <v>72</v>
+      <c r="A16" s="24"/>
+      <c r="B16" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="25" t="s">
+        <v>16</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="19"/>
@@ -1075,12 +1068,16 @@
       <c r="J16" s="16"/>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="21"/>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="25" t="s">
+        <v>45</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1089,232 +1086,206 @@
       <c r="K17" s="22"/>
     </row>
     <row r="18" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="10"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="25" t="s">
+        <v>16</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26" t="s">
-        <v>16</v>
+      <c r="A19" s="29"/>
+      <c r="B19" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="28" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
-      <c r="B20" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26" t="s">
+      <c r="B20" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26" t="s">
-        <v>73</v>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29" t="s">
+      <c r="G22" s="26"/>
+      <c r="H22" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="28" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28" t="s">
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="25" t="s">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F26" s="2"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="29" t="s">
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F27" s="2"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="27" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="25" t="s">
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Suppl/Thrive Fitness Plan - Lifting - heh.xlsx
+++ b/Suppl/Thrive Fitness Plan - Lifting - heh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>Plan</t>
   </si>
@@ -72,9 +72,6 @@
     <t>10/10/10</t>
   </si>
   <si>
-    <t>Smith Squats</t>
-  </si>
-  <si>
     <t>Dumbbell Flys</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>8/12/12</t>
   </si>
   <si>
-    <t>Lying Hamstring Curl</t>
-  </si>
-  <si>
     <t>Wide Grip Lat Pulldowns, Slow</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>Seated Wide Grip Row</t>
   </si>
   <si>
-    <t>Good Mornings</t>
-  </si>
-  <si>
     <t>Dumbbell Lunges</t>
   </si>
   <si>
@@ -219,22 +210,34 @@
     <t>15/20/20</t>
   </si>
   <si>
-    <t>16/16/10</t>
-  </si>
-  <si>
     <t>Dumbbell Incline Bench Press</t>
   </si>
   <si>
     <t>Dumbell Flat Bench Press</t>
   </si>
   <si>
-    <t>Single Leg Seat-Mach Calf Press</t>
-  </si>
-  <si>
-    <t>Leg Press</t>
-  </si>
-  <si>
     <t>Hamstring Lower Back Ext</t>
+  </si>
+  <si>
+    <t>Hex Bar Squat</t>
+  </si>
+  <si>
+    <t>Plate Loaded Calf Raise</t>
+  </si>
+  <si>
+    <t>Lying Hamstring Curls</t>
+  </si>
+  <si>
+    <t>12/12/10</t>
+  </si>
+  <si>
+    <t>Plate Loaded Leg Press</t>
+  </si>
+  <si>
+    <t>Barbell Good Morning</t>
+  </si>
+  <si>
+    <t>16/16/16</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -450,9 +453,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -460,6 +460,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,13 +745,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="K28" sqref="A1:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -773,10 +782,10 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="36">
         <v>42793</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -857,19 +866,19 @@
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17" t="s">
-        <v>20</v>
+      <c r="H6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="38" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -878,138 +887,138 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17" t="s">
-        <v>20</v>
+      <c r="H7" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="38" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="17" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="19"/>
       <c r="H9" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="19"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="17" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="17" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="11"/>
       <c r="E12" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17" t="s">
-        <v>20</v>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="38" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="19"/>
       <c r="H13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="38" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1020,44 +1029,44 @@
       <c r="D14" s="2"/>
       <c r="E14" s="21"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="19"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="17" t="s">
-        <v>34</v>
+        <v>68</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="38" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="10"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="19"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="17" t="s">
-        <v>66</v>
+        <v>34</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="38" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
-      <c r="B16" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
+      <c r="B16" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="25" t="s">
         <v>16</v>
       </c>
@@ -1070,13 +1079,13 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
-      <c r="B17" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+      <c r="B17" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="2"/>
@@ -1087,20 +1096,20 @@
     </row>
     <row r="18" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29"/>
-      <c r="B18" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
+      <c r="B18" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
@@ -1108,18 +1117,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
-      <c r="B19" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
+      <c r="B19" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="26"/>
       <c r="H19" s="27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
@@ -1129,39 +1138,39 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="25" t="s">
         <v>18</v>
-      </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="25" t="s">
-        <v>19</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="26"/>
       <c r="H20" s="27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
       <c r="K20" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="30"/>
       <c r="H21" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
@@ -1170,19 +1179,19 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="26"/>
       <c r="H22" s="27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
@@ -1191,53 +1200,53 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="26"/>
       <c r="H23" s="27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="26"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
       <c r="K24" s="28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="2"/>
       <c r="G25" s="30"/>
       <c r="H25" s="27" t="s">
@@ -1246,31 +1255,31 @@
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
       <c r="K25" s="28" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F26" s="2"/>
-      <c r="G26" s="30"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="27" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
       <c r="K26" s="28" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F27" s="2"/>
-      <c r="G27" s="30"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
       <c r="K27" s="28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">

--- a/Suppl/Thrive Fitness Plan - Lifting - heh.xlsx
+++ b/Suppl/Thrive Fitness Plan - Lifting - heh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>Plan</t>
   </si>
@@ -81,15 +81,9 @@
     <t>12/12/12</t>
   </si>
   <si>
-    <t>Seated Hammer Curls</t>
-  </si>
-  <si>
     <t>8/12/12</t>
   </si>
   <si>
-    <t>Wide Grip Lat Pulldowns, Slow</t>
-  </si>
-  <si>
     <t>10/12/12</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
     <t>Medicine Ball Pushups</t>
   </si>
   <si>
-    <t>8/8/8/8</t>
-  </si>
-  <si>
     <t>Kettlebell Squat-to-Upright Row</t>
   </si>
   <si>
@@ -204,9 +195,6 @@
     <t>12/10/8</t>
   </si>
   <si>
-    <t>12/12/15</t>
-  </si>
-  <si>
     <t>15/20/20</t>
   </si>
   <si>
@@ -238,6 +226,18 @@
   </si>
   <si>
     <t>16/16/16</t>
+  </si>
+  <si>
+    <t>Hammer Curl, Seated</t>
+  </si>
+  <si>
+    <t>Wide Grip Lat Pulldown, Slow</t>
+  </si>
+  <si>
+    <t>12/10/10</t>
+  </si>
+  <si>
+    <t>Single Arm Dumbbell Rows</t>
   </si>
 </sst>
 </file>
@@ -453,18 +453,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,13 +751,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K28" sqref="A1:K28"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="16" max="16" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11" style="36" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -782,10 +787,10 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="35">
         <v>42793</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -856,102 +861,102 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
       <c r="H6" s="19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="38" t="s">
-        <v>69</v>
+      <c r="K6" s="34" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13" t="s">
-        <v>16</v>
+      <c r="B7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="37" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="19"/>
       <c r="H8" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13" t="s">
-        <v>23</v>
+        <v>61</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="37" t="s">
+        <v>71</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="19"/>
       <c r="H9" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
@@ -960,116 +965,112 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="13" t="s">
-        <v>19</v>
+      <c r="E12" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="19"/>
       <c r="H12" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="38" t="s">
-        <v>23</v>
+      <c r="K12" s="34" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="13" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="19"/>
       <c r="H13" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
-      <c r="K13" s="38" t="s">
+      <c r="K13" s="34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="21"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="37" t="s">
+        <v>19</v>
+      </c>
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="10"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
-      <c r="K15" s="38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="25" t="s">
-        <v>16</v>
-      </c>
+      <c r="K15" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="14"/>
       <c r="G16" s="19"/>
       <c r="H16" s="16"/>
@@ -1077,16 +1078,16 @@
       <c r="J16" s="16"/>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="25" t="s">
-        <v>42</v>
-      </c>
+    <row r="17" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="5"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1095,40 +1096,40 @@
       <c r="K17" s="22"/>
     </row>
     <row r="18" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="29"/>
-      <c r="B18" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="25" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="26"/>
       <c r="H19" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
@@ -1137,19 +1138,19 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="26"/>
       <c r="H20" s="27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
@@ -1158,19 +1159,19 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="25" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="30"/>
       <c r="H21" s="27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
@@ -1180,18 +1181,18 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
-      <c r="B22" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
+      <c r="B22" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="25" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="26"/>
       <c r="H22" s="27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
@@ -1200,57 +1201,61 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="26"/>
       <c r="H23" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
-      <c r="B24" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
+      <c r="B24" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="30"/>
       <c r="H24" s="27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
       <c r="K24" s="28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="32" t="s">
+        <v>55</v>
+      </c>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
+      <c r="E25" s="25" t="s">
+        <v>19</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="30"/>
       <c r="H25" s="27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
@@ -1259,27 +1264,34 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="2"/>
       <c r="G26" s="26"/>
       <c r="H26" s="27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
       <c r="K26" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F27" s="2"/>
       <c r="G27" s="26"/>
       <c r="H27" s="27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
       <c r="K27" s="28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">

--- a/Suppl/Thrive Fitness Plan - Lifting - heh.xlsx
+++ b/Suppl/Thrive Fitness Plan - Lifting - heh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t>Plan</t>
   </si>
@@ -174,12 +174,6 @@
     <t>8/8/10</t>
   </si>
   <si>
-    <t>Barbbell Shrugs</t>
-  </si>
-  <si>
-    <t>10/15/20</t>
-  </si>
-  <si>
     <t>Dumbbell Incline Bench Fly</t>
   </si>
   <si>
@@ -238,6 +232,9 @@
   </si>
   <si>
     <t>Single Arm Dumbbell Rows</t>
+  </si>
+  <si>
+    <t>Dumbbell Shrugs</t>
   </si>
 </sst>
 </file>
@@ -459,16 +456,16 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,14 +748,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="35" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -787,10 +784,10 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="38">
         <v>42793</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -866,34 +863,34 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
       <c r="H6" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="36" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -904,11 +901,11 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="14"/>
@@ -925,12 +922,12 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="37" t="s">
-        <v>71</v>
+      <c r="E9" s="36" t="s">
+        <v>69</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="19"/>
@@ -988,17 +985,17 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="36" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="19"/>
       <c r="H12" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
@@ -1019,7 +1016,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="19"/>
       <c r="H13" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
@@ -1034,13 +1031,13 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="36" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
@@ -1053,7 +1050,7 @@
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="37"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="16" t="s">
@@ -1062,7 +1059,7 @@
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1098,7 +1095,7 @@
     <row r="18" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="24"/>
       <c r="B18" s="32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
@@ -1140,7 +1137,7 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
@@ -1166,7 +1163,7 @@
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
       <c r="E21" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="30"/>
@@ -1224,7 +1221,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
@@ -1245,7 +1242,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
       <c r="B25" s="32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
@@ -1255,7 +1252,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="30"/>
       <c r="H25" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
@@ -1264,7 +1261,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="32" t="s">
         <v>39</v>
       </c>
@@ -1274,24 +1271,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="26"/>
       <c r="H26" s="27" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
       <c r="K26" s="28" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F27" s="2"/>
       <c r="G27" s="26"/>
       <c r="H27" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
       <c r="K27" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">

--- a/Suppl/Thrive Fitness Plan - Lifting - heh.xlsx
+++ b/Suppl/Thrive Fitness Plan - Lifting - heh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>Plan</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Shoulders &amp; Traps</t>
   </si>
   <si>
-    <t>Barbbell Shoulder Press</t>
-  </si>
-  <si>
     <t>Medicine Ball Pushups</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>Dumbell Flat Bench Press</t>
   </si>
   <si>
-    <t>Hamstring Lower Back Ext</t>
-  </si>
-  <si>
     <t>Hex Bar Squat</t>
   </si>
   <si>
@@ -235,6 +229,15 @@
   </si>
   <si>
     <t>Dumbbell Shrugs</t>
+  </si>
+  <si>
+    <t>Assisted Pull-ups</t>
+  </si>
+  <si>
+    <t>12/12/99</t>
+  </si>
+  <si>
+    <t>Dumbbell Shoulder Press</t>
   </si>
 </sst>
 </file>
@@ -748,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,18 +872,18 @@
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
       <c r="H6" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -890,7 +893,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -901,7 +904,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -922,12 +925,12 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="12" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="19"/>
@@ -985,7 +988,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -995,7 +998,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="19"/>
       <c r="H12" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
@@ -1016,7 +1019,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="19"/>
       <c r="H13" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
@@ -1037,7 +1040,7 @@
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
@@ -1059,7 +1062,7 @@
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1095,7 +1098,7 @@
     <row r="18" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="24"/>
       <c r="B18" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
@@ -1116,17 +1119,17 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
       <c r="E19" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="26"/>
       <c r="H19" s="27" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
@@ -1137,7 +1140,7 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
@@ -1147,7 +1150,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="26"/>
       <c r="H20" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
@@ -1158,17 +1161,17 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
       <c r="E21" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="30"/>
       <c r="H21" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
@@ -1189,7 +1192,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="26"/>
       <c r="H22" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
@@ -1200,7 +1203,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
@@ -1210,18 +1213,18 @@
       <c r="F23" s="2"/>
       <c r="G23" s="26"/>
       <c r="H23" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
@@ -1231,18 +1234,18 @@
       <c r="F24" s="2"/>
       <c r="G24" s="30"/>
       <c r="H24" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
       <c r="K24" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
       <c r="B25" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
@@ -1252,7 +1255,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="30"/>
       <c r="H25" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
@@ -1263,7 +1266,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="32"/>
       <c r="D26" s="32"/>
@@ -1271,24 +1274,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="26"/>
       <c r="H26" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
       <c r="K26" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F27" s="2"/>
       <c r="G27" s="26"/>
       <c r="H27" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
       <c r="K27" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
